--- a/public/public_data/v1.6/EpiGenes_complexes_1_6.xlsx
+++ b/public/public_data/v1.6/EpiGenes_complexes_1_6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="EpiGenes_complexes_1.5" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,15 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="412">
   <si>
     <t>Id</t>
   </si>
@@ -253,7 +255,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ARID1A/BAF250A or ARID1B/BAF250B, SMARCD1/BAF60A, SMARCD3/BAF60C, SMARCA2/BRM/BAF190B, SMARCA4/BRG1/BAF190A, SMARCB1/BAF47, SMARCC1/BAF155, SMARCE1/BAF57, SMARCC2/BAF170, DPF1/BAF45B, DPF3/BAF45C, ACTL6B/BAF53B and </t>
+      <t>ARID1A/BAF250A or ARID1B/BAF250B, SMARCD1/BAF60A, SMARCD3/BAF60C, SMARCA2/BRM/BAF190B, SMARCA4/BRG1/BAF190A, SMARCB1/BAF47, SMARCC1/BAF155, SMARCE1/BAF57, SMARCC2/BAF170, DPF1/BAF45B, DPF3/BAF45C, ACTL6B/BAF53B and </t>
     </r>
     <r>
       <rPr>
@@ -263,7 +265,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">actin</t>
+      <t>actin</t>
     </r>
   </si>
   <si>
@@ -1077,7 +1079,7 @@
     <t>histone dimers containing H2B and H2A.Z</t>
   </si>
   <si>
-    <t>mononucleosomes reconstituted with recombinant H2A, H2B, H3, and H4</t>
+    <t>mononucleosomes reconstituted with recombinant H2A,H2B,H3,H4</t>
   </si>
   <si>
     <t>H2AZ_HUMAN, H2B1A_HUMAN, H2B1B_HUMAN, H2B1C_HUMAN, H2B1D_HUMAN, H2B1H_HUMAN, H2B1J_HUMAN, H2B1K_HUMAN, H2B1L_HUMAN, H2B1M_HUMAN, H2B1N_HUMAN, H2B1O_HUMAN, H2B2C_HUMAN, H2B2D_HUMAN, H2B2E_HUMAN, H2B2F_HUMAN, H2B3B_HUMAN, H2BFM_HUMAN, H2BFS_HUMAN, H2BWT_HUMAN</t>
@@ -1390,15 +1392,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1410,6 +1408,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1524,85 +1526,85 @@
   </sheetPr>
   <dimension ref="A1:IX70"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="N60" activeCellId="0" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.71255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.4210526315789"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="37.9919028340081"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="84.6963562753036"/>
-    <col collapsed="false" hidden="false" max="258" min="18" style="3" width="10.8542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="10.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.4234693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="17.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.70918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.8520408163265"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="34.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="47.4183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.8520408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="29.4183673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.8520408163265"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="11.9948979591837"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="15.1377551020408"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="37.984693877551"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="11.9948979591837"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="84.6938775510204"/>
+    <col collapsed="false" hidden="false" max="258" min="18" style="2" width="10.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="259" style="0" width="10.8520408163265"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="0"/>
@@ -1851,52 +1853,52 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="n">
+      <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="6" t="n">
         <v>12434153</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="R2" s="0"/>
@@ -2145,49 +2147,49 @@
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="6" t="n">
         <v>16603771</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>36</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P3" s="6" t="n">
         <v>19092802</v>
       </c>
       <c r="Q3" s="8" t="s">
@@ -2439,16 +2441,16 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -2460,31 +2462,31 @@
       <c r="H4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K4" s="6" t="n">
         <v>12972596</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="n">
+      <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="6" t="n">
         <v>19398759</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="6" t="s">
         <v>47</v>
       </c>
       <c r="R4" s="0"/>
@@ -2733,19 +2735,19 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -2754,31 +2756,31 @@
       <c r="H5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K5" s="6" t="n">
         <v>10880450</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="M5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2789,16 +2791,16 @@
       <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
@@ -2819,16 +2821,16 @@
       <c r="L6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="Q6" s="10" t="s">
@@ -3080,52 +3082,52 @@
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K7" s="6" t="n">
         <v>20850016</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="R7" s="0"/>
@@ -3374,52 +3376,52 @@
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="1" t="n">
+      <c r="I8" s="6" t="n">
         <v>25486562</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="K8" s="6" t="n">
         <v>25486562</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="M8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R8" s="0"/>
@@ -3668,52 +3670,52 @@
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="1" t="n">
+      <c r="K9" s="6" t="n">
         <v>10078207</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="1" t="s">
+      <c r="M9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>74</v>
       </c>
       <c r="R9" s="0"/>
@@ -3962,52 +3964,52 @@
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B10" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="n">
+      <c r="K10" s="6" t="n">
         <v>11078522</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="6" t="s">
         <v>80</v>
       </c>
       <c r="R10" s="0"/>
@@ -4256,52 +4258,52 @@
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="1" t="n">
+      <c r="K11" s="6" t="n">
         <v>11078522</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="M11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>85</v>
       </c>
       <c r="R11" s="0"/>
@@ -4550,52 +4552,52 @@
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B12" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="n">
+      <c r="K12" s="6" t="n">
         <v>11780067</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="M12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>91</v>
       </c>
       <c r="R12" s="0"/>
@@ -4844,52 +4846,52 @@
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="M13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R13" s="0"/>
@@ -5138,52 +5140,52 @@
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="M14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R14" s="0"/>
@@ -5432,52 +5434,52 @@
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="M15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R15" s="0"/>
@@ -5726,52 +5728,52 @@
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16" s="6" t="n">
         <v>12665591</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="1" t="n">
+      <c r="K16" s="6" t="n">
         <v>12665591</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="M16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R16" s="0"/>
@@ -6020,49 +6022,49 @@
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17" s="6" t="n">
         <v>12837248</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="6" t="n">
         <v>12837248</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="M17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="Q17" s="8" t="s">
@@ -6314,52 +6316,52 @@
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18" s="6" t="n">
         <v>15640247</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="1" t="n">
+      <c r="K18" s="6" t="n">
         <v>15640247</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="M18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>111</v>
       </c>
       <c r="R18" s="0"/>
@@ -6608,52 +6610,52 @@
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="1" t="n">
+      <c r="I19" s="6" t="n">
         <v>12665591</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="1" t="n">
+      <c r="K19" s="6" t="n">
         <v>12665591</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="M19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R19" s="0"/>
@@ -6902,52 +6904,52 @@
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="M20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R20" s="0"/>
@@ -7196,52 +7198,52 @@
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="1" t="n">
+      <c r="I21" s="6" t="n">
         <v>22108599</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="1" t="n">
+      <c r="K21" s="6" t="n">
         <v>22108599</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="1" t="s">
+      <c r="M21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R21" s="0"/>
@@ -7490,52 +7492,52 @@
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B22" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I22" s="1" t="n">
+      <c r="I22" s="6" t="n">
         <v>16230350</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="1" t="n">
+      <c r="K22" s="6" t="n">
         <v>16230350</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="1" t="s">
+      <c r="N22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="1" t="n">
+      <c r="P22" s="6" t="n">
         <v>15607974</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="6" t="s">
         <v>128</v>
       </c>
       <c r="R22" s="0"/>
@@ -7784,52 +7786,52 @@
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="I23" s="1" t="n">
+      <c r="I23" s="6" t="n">
         <v>24463511</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="1" t="n">
+      <c r="K23" s="6" t="n">
         <v>24463511</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="1" t="s">
+      <c r="M23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R23" s="0"/>
@@ -8078,52 +8080,52 @@
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I24" s="1" t="n">
+      <c r="I24" s="6" t="n">
         <v>17121840</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="K24" s="1" t="n">
+      <c r="K24" s="6" t="n">
         <v>11727199</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="1" t="n">
+      <c r="O24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="6" t="n">
         <v>11727199</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="6" t="s">
         <v>141</v>
       </c>
       <c r="R24" s="0"/>
@@ -8372,52 +8374,52 @@
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="E25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="1" t="n">
+      <c r="I25" s="6" t="n">
         <v>9674425</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K25" s="1" t="n">
+      <c r="K25" s="6" t="n">
         <v>8684459</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="6" t="s">
         <v>149</v>
       </c>
       <c r="O25" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="P25" s="6" t="n">
         <v>9880483</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R25" s="0"/>
@@ -8666,52 +8668,52 @@
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="E26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="I26" s="6" t="n">
         <v>16387653</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="1" t="n">
+      <c r="K26" s="6" t="n">
         <v>10438470</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="6" t="s">
         <v>155</v>
       </c>
       <c r="O26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="1" t="n">
+      <c r="P26" s="6" t="n">
         <v>10438470</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="6" t="s">
         <v>156</v>
       </c>
       <c r="R26" s="0"/>
@@ -8960,19 +8962,19 @@
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>158</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -8981,28 +8983,28 @@
       <c r="H27" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I27" s="1" t="n">
+      <c r="I27" s="6" t="n">
         <v>10373431</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K27" s="1" t="n">
+      <c r="K27" s="6" t="n">
         <v>10373431</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="6" t="s">
         <v>162</v>
       </c>
       <c r="O27" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P27" s="1" t="n">
+      <c r="P27" s="6" t="n">
         <v>11406595</v>
       </c>
       <c r="Q27" s="8" t="s">
@@ -9254,52 +9256,52 @@
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="1" t="n">
+      <c r="K28" s="6" t="n">
         <v>11714725</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="6" t="s">
         <v>155</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P28" s="1" t="n">
+      <c r="P28" s="6" t="n">
         <v>11714725</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="6" t="s">
         <v>170</v>
       </c>
       <c r="R28" s="0"/>
@@ -9548,52 +9550,52 @@
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="E29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K29" s="1" t="n">
+      <c r="K29" s="6" t="n">
         <v>14966270</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="6" t="s">
         <v>176</v>
       </c>
       <c r="O29" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="P29" s="1" t="n">
+      <c r="P29" s="6" t="n">
         <v>14966270</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R29" s="0"/>
@@ -9842,52 +9844,52 @@
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="1" t="n">
+      <c r="I30" s="6" t="n">
         <v>14966270</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K30" s="1" t="n">
+      <c r="K30" s="6" t="n">
         <v>14966270</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="6" t="s">
         <v>176</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="P30" s="1" t="n">
+      <c r="P30" s="6" t="n">
         <v>14966270</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -9895,52 +9897,52 @@
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K31" s="1" t="n">
+      <c r="K31" s="6" t="n">
         <v>16387653</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="6" t="s">
         <v>162</v>
       </c>
       <c r="O31" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P31" s="1" t="n">
+      <c r="P31" s="6" t="n">
         <v>16387653</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -9948,52 +9950,52 @@
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B32" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="1" t="n">
+      <c r="K32" s="6" t="n">
         <v>18206972</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="P32" s="1" t="n">
+      <c r="P32" s="6" t="n">
         <v>18206972</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q32" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -10001,52 +10003,52 @@
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B33" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="1" t="n">
+      <c r="I33" s="6" t="n">
         <v>19103755</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K33" s="1" t="n">
+      <c r="K33" s="6" t="n">
         <v>19103755</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="6" t="s">
         <v>155</v>
       </c>
       <c r="O33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P33" s="1" t="n">
+      <c r="P33" s="6" t="n">
         <v>19103755</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q33" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -10054,52 +10056,52 @@
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B34" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="I34" s="1" t="n">
+      <c r="I34" s="6" t="n">
         <v>20018852</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K34" s="1" t="n">
+      <c r="K34" s="6" t="n">
         <v>20018852</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="6" t="s">
         <v>207</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="P34" s="1" t="n">
+      <c r="P34" s="6" t="n">
         <v>20018852</v>
       </c>
-      <c r="Q34" s="1" t="s">
+      <c r="Q34" s="6" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10116,7 +10118,7 @@
       <c r="D35" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -10128,31 +10130,31 @@
       <c r="H35" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="6" t="s">
         <v>95</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+      <c r="M35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q35" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10160,52 +10162,52 @@
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B36" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="E36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K36" s="1" t="n">
+      <c r="K36" s="6" t="n">
         <v>11564863</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q36" s="1" t="s">
+      <c r="M36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q36" s="6" t="s">
         <v>218</v>
       </c>
     </row>
@@ -10213,52 +10215,52 @@
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B37" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P37" s="1" t="n">
+      <c r="P37" s="6" t="n">
         <v>11850414</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" s="6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10266,52 +10268,52 @@
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I38" s="1" t="n">
+      <c r="I38" s="6" t="n">
         <v>12493763</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K38" s="1" t="n">
+      <c r="K38" s="6" t="n">
         <v>12493763</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+      <c r="M38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10319,52 +10321,52 @@
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B39" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="E39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="I39" s="1" t="n">
+      <c r="I39" s="6" t="n">
         <v>10471499</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="K39" s="1" t="n">
+      <c r="K39" s="6" t="n">
         <v>10471499</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q39" s="1" t="s">
+      <c r="M39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q39" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10372,19 +10374,19 @@
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B40" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="6" t="s">
         <v>219</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>239</v>
       </c>
       <c r="G40" s="8" t="s">
@@ -10393,31 +10395,31 @@
       <c r="H40" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K40" s="1" t="n">
+      <c r="K40" s="6" t="n">
         <v>12670868</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+      <c r="M40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q40" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10425,52 +10427,52 @@
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B41" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K41" s="1" t="n">
+      <c r="K41" s="6" t="n">
         <v>12711221</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q41" s="1" t="s">
+      <c r="M41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="6" t="s">
         <v>247</v>
       </c>
     </row>
@@ -10478,52 +10480,52 @@
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B42" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="6" t="s">
         <v>250</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="K42" s="1" t="n">
+      <c r="K42" s="6" t="n">
         <v>16387653</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q42" s="1" t="s">
+      <c r="M42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q42" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10531,52 +10533,52 @@
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B43" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="1" t="s">
+      <c r="G43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="K43" s="1" t="n">
+      <c r="K43" s="6" t="n">
         <v>23418308</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="6" t="s">
         <v>260</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P43" s="1" t="n">
+      <c r="P43" s="6" t="n">
         <v>23418308</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="6" t="s">
         <v>261</v>
       </c>
     </row>
@@ -10584,52 +10586,52 @@
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B44" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K44" s="1" t="n">
+      <c r="K44" s="6" t="n">
         <v>16943429</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="6" t="s">
         <v>260</v>
       </c>
       <c r="O44" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q44" s="1" t="s">
+      <c r="P44" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="6" t="s">
         <v>268</v>
       </c>
     </row>
@@ -10637,52 +10639,52 @@
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="6" t="s">
         <v>260</v>
       </c>
       <c r="O45" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q45" s="1" t="s">
+      <c r="P45" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10690,52 +10692,52 @@
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B46" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="6" t="s">
         <v>260</v>
       </c>
       <c r="O46" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q46" s="1" t="s">
+      <c r="P46" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10743,52 +10745,52 @@
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B47" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="6" t="s">
         <v>284</v>
       </c>
       <c r="O47" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" s="6" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10796,16 +10798,16 @@
       <c r="A48" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B48" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F48" s="8" t="s">
@@ -10814,34 +10816,34 @@
       <c r="G48" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="I48" s="1" t="n">
+      <c r="I48" s="6" t="n">
         <v>16253997</v>
       </c>
       <c r="J48" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="K48" s="1" t="n">
+      <c r="K48" s="6" t="n">
         <v>12670868</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="6" t="s">
         <v>293</v>
       </c>
       <c r="O48" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P48" s="1" t="n">
+      <c r="P48" s="6" t="n">
         <v>12670868</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10849,52 +10851,52 @@
       <c r="A49" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B49" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="E49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="I49" s="1" t="n">
+      <c r="I49" s="6" t="n">
         <v>17500065</v>
       </c>
       <c r="J49" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="K49" s="1" t="n">
+      <c r="K49" s="6" t="n">
         <v>17500065</v>
       </c>
       <c r="L49" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="6" t="s">
         <v>297</v>
       </c>
       <c r="O49" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P49" s="1" t="n">
+      <c r="P49" s="6" t="n">
         <v>16604156</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="Q49" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10902,52 +10904,52 @@
       <c r="A50" s="0" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B50" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="E50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I50" s="1" t="n">
+      <c r="I50" s="6" t="n">
         <v>15199122</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="K50" s="1" t="n">
+      <c r="K50" s="6" t="n">
         <v>15199122</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q50" s="1" t="s">
+      <c r="M50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q50" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -10955,52 +10957,52 @@
       <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B51" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="I51" s="1" t="n">
+      <c r="I51" s="6" t="n">
         <v>11756452</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K51" s="1" t="n">
+      <c r="K51" s="6" t="n">
         <v>11756452</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="O51" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q51" s="1" t="s">
+      <c r="O51" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11008,52 +11010,52 @@
       <c r="A52" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="F52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="I52" s="6" t="n">
         <v>18485871</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K52" s="1" t="n">
+      <c r="K52" s="6" t="n">
         <v>18485871</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q52" s="1" t="s">
+      <c r="O52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11061,16 +11063,16 @@
       <c r="A53" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B53" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -11082,31 +11084,31 @@
       <c r="H53" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="K53" s="1" t="n">
+      <c r="K53" s="6" t="n">
         <v>19556245</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="6" t="s">
         <v>322</v>
       </c>
       <c r="O53" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P53" s="1" t="n">
+      <c r="P53" s="6" t="n">
         <v>19556245</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="Q53" s="6" t="s">
         <v>323</v>
       </c>
     </row>
@@ -11114,16 +11116,16 @@
       <c r="A54" s="0" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F54" s="8" t="s">
@@ -11135,31 +11137,31 @@
       <c r="H54" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="I54" s="6" t="n">
         <v>17500065</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="K54" s="1" t="n">
+      <c r="K54" s="6" t="n">
         <v>17500065</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="O54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P54" s="1" t="n">
+      <c r="O54" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" s="6" t="n">
         <v>21330447</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="Q54" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11167,16 +11169,16 @@
       <c r="A55" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B55" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F55" s="8" t="s">
@@ -11188,31 +11190,31 @@
       <c r="H55" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="I55" s="1" t="n">
+      <c r="I55" s="6" t="n">
         <v>22108599</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="K55" s="1" t="n">
+      <c r="K55" s="6" t="n">
         <v>22108599</v>
       </c>
       <c r="L55" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="6" t="s">
         <v>207</v>
       </c>
       <c r="O55" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="P55" s="1" t="n">
+      <c r="P55" s="6" t="n">
         <v>22108599</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q55" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -11220,19 +11222,19 @@
       <c r="A56" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G56" s="8" t="s">
@@ -11244,28 +11246,28 @@
       <c r="I56" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="6" t="s">
         <v>95</v>
       </c>
       <c r="L56" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q56" s="1" t="s">
+      <c r="M56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q56" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11273,16 +11275,16 @@
       <c r="A57" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F57" s="8" t="s">
@@ -11294,31 +11296,31 @@
       <c r="H57" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="I57" s="1" t="n">
+      <c r="I57" s="6" t="n">
         <v>22108599</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="K57" s="1" t="n">
+      <c r="K57" s="6" t="n">
         <v>22108599</v>
       </c>
       <c r="L57" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q57" s="1" t="s">
+      <c r="M57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q57" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11326,52 +11328,52 @@
       <c r="A58" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="6" t="s">
         <v>339</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="E58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I58" s="1" t="n">
+      <c r="I58" s="6" t="n">
         <v>10421373</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="1" t="n">
+      <c r="K58" s="6" t="n">
         <v>16713563</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O58" s="1" t="s">
+      <c r="N58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O58" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="P58" s="1" t="n">
+      <c r="P58" s="6" t="n">
         <v>16713563</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="Q58" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -11379,7 +11381,7 @@
       <c r="A59" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="6" t="n">
         <v>12</v>
       </c>
       <c r="C59" s="7" t="s">
@@ -11388,10 +11390,10 @@
       <c r="D59" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="E59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -11400,31 +11402,31 @@
       <c r="H59" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="I59" s="1" t="n">
+      <c r="I59" s="6" t="n">
         <v>15647280</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="1" t="n">
+      <c r="K59" s="6" t="n">
         <v>15647280</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="P59" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="Q59" s="6" t="s">
         <v>351</v>
       </c>
     </row>
@@ -11432,100 +11434,102 @@
       <c r="A60" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B60" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60" s="6" t="n">
         <v>19214193</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="K60" s="1" t="n">
+      <c r="K60" s="6" t="n">
         <v>19214193</v>
       </c>
       <c r="L60" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="6" t="s">
         <v>359</v>
       </c>
       <c r="O60" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P60" s="1" t="n">
+      <c r="P60" s="6" t="n">
         <v>14636569</v>
       </c>
-      <c r="Q60" s="0"/>
+      <c r="Q60" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="72" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B61" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="6" t="s">
         <v>352</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="E61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="I61" s="6" t="n">
         <v>20436459</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="K61" s="1" t="n">
+      <c r="K61" s="6" t="n">
         <v>20436459</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="6" t="s">
         <v>260</v>
       </c>
       <c r="O61" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P61" s="1" t="n">
+      <c r="P61" s="6" t="n">
         <v>20436459</v>
       </c>
       <c r="Q61" s="8" t="s">
@@ -11536,52 +11540,52 @@
       <c r="A62" s="0" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B62" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="E62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="I62" s="1" t="n">
+      <c r="I62" s="6" t="n">
         <v>14636569</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="K62" s="1" t="n">
+      <c r="K62" s="6" t="n">
         <v>14636569</v>
       </c>
       <c r="L62" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+      <c r="M62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q62" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11589,52 +11593,52 @@
       <c r="A63" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B63" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G63" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K63" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="6" t="s">
         <v>373</v>
       </c>
       <c r="O63" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="P63" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="Q63" s="6" t="s">
         <v>374</v>
       </c>
     </row>
@@ -11642,52 +11646,52 @@
       <c r="A64" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="E64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="I64" s="6" t="n">
         <v>8858152</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="K64" s="1" t="n">
+      <c r="K64" s="6" t="n">
         <v>8858152</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="6" t="s">
         <v>28</v>
       </c>
       <c r="O64" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="P64" s="1" t="n">
+      <c r="P64" s="6" t="n">
         <v>8858152</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="Q64" s="6" t="s">
         <v>379</v>
       </c>
     </row>
@@ -11695,52 +11699,52 @@
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B65" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+      <c r="M65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q65" s="6" t="s">
         <v>383</v>
       </c>
     </row>
@@ -11748,52 +11752,52 @@
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B66" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="I66" s="6" t="n">
         <v>17174896</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="K66" s="1" t="n">
+      <c r="K66" s="6" t="n">
         <v>17174896</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q66" s="1" t="s">
+      <c r="M66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q66" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11801,50 +11805,52 @@
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B67" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="I67" s="1" t="n">
+      <c r="I67" s="6" t="n">
         <v>18758438</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="K67" s="1" t="n">
+      <c r="K67" s="6" t="n">
         <v>18758438</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N67" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="O67" s="3"/>
-      <c r="P67" s="2" t="n">
+      <c r="O67" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="12" t="n">
         <v>18758438</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="Q67" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11852,52 +11858,52 @@
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="I68" s="1" t="n">
+      <c r="I68" s="6" t="n">
         <v>17540172</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="1" t="n">
+      <c r="K68" s="6" t="n">
         <v>25482055</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O68" s="2" t="s">
+      <c r="N68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O68" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="P68" s="1" t="n">
+      <c r="P68" s="6" t="n">
         <v>17540172</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="Q68" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11905,50 +11911,52 @@
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B69" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="F69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="I69" s="1" t="n">
+      <c r="I69" s="6" t="n">
         <v>23592795</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K69" s="1" t="n">
+      <c r="K69" s="6" t="n">
         <v>25482055</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M69" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N69" s="0"/>
-      <c r="O69" s="2" t="s">
+      <c r="N69" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O69" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="P69" s="1" t="n">
+      <c r="P69" s="6" t="n">
         <v>23592795</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="Q69" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11956,52 +11964,52 @@
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B70" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="K70" s="1" t="n">
+      <c r="K70" s="6" t="n">
         <v>25482055</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M70" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O70" s="2" t="s">
+      <c r="N70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O70" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="P70" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q70" s="1" t="s">
+      <c r="P70" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q70" s="6" t="s">
         <v>28</v>
       </c>
     </row>

--- a/public/public_data/v1.6/EpiGenes_complexes_1_6.xlsx
+++ b/public/public_data/v1.6/EpiGenes_complexes_1_6.xlsx
@@ -15,6 +15,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'EpiGenes_complexes_1.5'!$B$1:$Q$70</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
@@ -1088,7 +1089,7 @@
     <t>16634648, 17617668</t>
   </si>
   <si>
-    <t>Mediates the ATP-dependent exchange of histone H2AZ/H2B dimers for nucleosomal H2A/H2B, leading to transcriptional regulation of selected genes by chromatin remodeling. "SRCAP-containing complex supports ATP-dependent exchange of histone dimers containing H2B and H2A.Z into mononucleosomes reconstituted with recombinant H2A, H2B, H3, and H4", PMID: 16634648.</t>
+    <t>Mediates the ATP-dependent exchange of histone H2AZ/H2B dimers for nucleosomal H2A/H2B, leading to transcriptional regulation of selected genes by chromatin remodeling. SRCAP-containing complex supports ATP-dependent exchange of histone dimers containing H2B and H2A.Z into mononucleosomes reconstituted with recombinant H2A, H2B, H3, and H4.</t>
   </si>
   <si>
     <t>DUB</t>
@@ -1527,9 +1528,9 @@
   <dimension ref="A1:IX70"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="N60" activeCellId="0" sqref="N60"/>
+      <selection pane="bottomLeft" activeCell="Q60" activeCellId="0" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
